--- a/Design/02_成果物/導入・構築/AWS/AWSツールセットアップ手順.xlsx
+++ b/Design/02_成果物/導入・構築/AWS/AWSツールセットアップ手順.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shose\Desktop\開発事業\工場管理システム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shose\Desktop\開発事業\工場管理システム\Dummy\Design\02_成果物\導入・構築\AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="セットアップ一覧" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>ツールセットアップ</t>
     <phoneticPr fontId="1"/>
@@ -583,6 +583,19 @@
     <t>AWS実行</t>
     <rPh sb="3" eb="5">
       <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境変数にMAVEN__HOME：解凍したパス　および　PATHに％MAVEN__HOME％\bin　が必要であった、</t>
+    <rPh sb="0" eb="4">
+      <t>カンキョウヘンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1586,6 +1599,44 @@
         <a:xfrm>
           <a:off x="533400" y="5364480"/>
           <a:ext cx="9392961" cy="2943636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>56309</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>23840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="8884920"/>
+          <a:ext cx="6723809" cy="7400000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2875,9 +2926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2971,7 +3020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M487"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A226" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
@@ -3174,11 +3223,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D31"/>
+  <dimension ref="B1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3210,6 +3257,11 @@
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3460,7 +3512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
